--- a/Empresas_grandes.xlsx
+++ b/Empresas_grandes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rodrigo.guarneros\Documents\2022\pequeños operadores\BiasAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B29B882-C57E-486B-A8D5-2E935EDCC72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B7BE20-9213-4994-B994-E446067BA1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas_grandes" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
-  <si>
-    <t>CONCESIONARIO</t>
-  </si>
-  <si>
-    <t>EMPRESA</t>
-  </si>
-  <si>
-    <t>GRUPO</t>
-  </si>
-  <si>
-    <t>INGRESOS_TOTAL_E</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>RADIOMOVIL DIPSA, S.A. DE C.V.</t>
   </si>
@@ -179,12 +167,36 @@
   </si>
   <si>
     <t>CABLEMAS</t>
+  </si>
+  <si>
+    <t>GRUPO SALINAS</t>
+  </si>
+  <si>
+    <t>SERVICIO Y EQUIPO EN TELEFONIA INTERNET Y TV, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELECOMUNICACIONES 360, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>OUI</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE VELAZQUEZ VAUGHAN</t>
+  </si>
+  <si>
+    <t>Concesionario</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Grupo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -721,6 +733,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6902515-B025-4E03-BA00-E490EF42673A}" name="Tabla2" displayName="Tabla2" ref="B1:D28" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{43406377-7C59-498E-8673-D8BE864086C9}" name="Concesionario"/>
+    <tableColumn id="2" xr3:uid="{06A877A6-F14E-4C73-8FA4-6C9557C660F7}" name="Empresa"/>
+    <tableColumn id="3" xr3:uid="{6CE546B8-F15F-41D6-9890-A1EF13C2A41B}" name="Grupo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,371 +1042,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>123</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="E1">
+        <v>218288998808</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>218288998808</v>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>120031140723</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>120031140723</v>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>55793781168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>55793781168</v>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>24871583943</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>24871583943</v>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>24112031768</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1">
-        <v>24112031768</v>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>23567319612</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23567319612</v>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>22784126736</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1">
-        <v>22784126736</v>
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>11496829253</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1">
+        <v>21</v>
+      </c>
+      <c r="E9">
         <v>9765026568</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8742237448</v>
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>7858397482</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7858397482</v>
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>5147296438</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>173</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5147296438</v>
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>4877002991</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4877002991</v>
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>2954414555.0999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2954414555.0999999</v>
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>2907451220</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2907451220</v>
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>2883757649.0999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2883757649.0999999</v>
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2879231196.3000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2879231196.3000002</v>
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>2834607753.3000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2834607753.3000002</v>
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>1228500763.69999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1">
+        <v>15</v>
+      </c>
+      <c r="E19">
         <v>1075678091.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20">
         <v>1062534797</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1">
-        <v>13749617.050000001</v>
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>729143369.60000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1391,70 +1420,118 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1">
-        <v>11409328.1</v>
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>13749617.050000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="1">
-        <v>11094520.279999999</v>
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>11409328.1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="1">
-        <v>8930015.9000000004</v>
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>11094520.279999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>8930015.9000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
         <v>1648000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>618339.83999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>